--- a/Outputs_study2/WithinAnalysis_GPT4.xlsx
+++ b/Outputs_study2/WithinAnalysis_GPT4.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\u_backup\chatGPT\Revision\Nature human behavior\Final version\Data and Code\Outputs_study2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\u_backup\chatGPT\Revision\Scientific reports\Data and Code\Outputs_study2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEC26DE7-080E-4E4E-A5E9-F49E3F0C5CB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59EF3169-773D-49AF-8ED6-685312E01959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="45972" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="32">
   <si>
     <t>frame</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t>ci_up</t>
+  </si>
+  <si>
+    <t>p_adj</t>
   </si>
   <si>
     <t>6 lives (fair)</t>
@@ -460,15 +463,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14:E19"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.53125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -490,21 +497,24 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2">
         <v>-14.0028008402801</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
@@ -513,21 +523,24 @@
       <c r="G2">
         <v>-13.865575913631901</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3">
         <v>-14.0028008402801</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
@@ -536,21 +549,24 @@
       <c r="G3">
         <v>-13.865575913631901</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4">
         <v>14.0028008402801</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
@@ -559,16 +575,19 @@
       <c r="G4">
         <v>14.1400257669283</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5">
         <v>0.84016805041680598</v>
@@ -582,21 +601,24 @@
       <c r="G5">
         <v>0.97739297706498696</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H5">
+        <v>0.42439147346428302</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6">
         <v>-5.0410083025008401</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6">
         <v>4.6308537315908898E-7</v>
       </c>
       <c r="F6">
@@ -605,21 +627,24 @@
       <c r="G6">
         <v>-4.9037833758526501</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H6" s="1">
+        <v>5.9539547977597097E-7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7">
         <v>-14.0028008402801</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
@@ -628,21 +653,24 @@
       <c r="G7">
         <v>-13.865575913631901</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8">
         <v>-14.0028008402801</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
@@ -651,21 +679,24 @@
       <c r="G8">
         <v>-13.865575913631901</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
         <v>19</v>
       </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9">
         <v>-13.7227448234745</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
@@ -674,21 +705,24 @@
       <c r="G9">
         <v>-13.5855198968263</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10">
         <v>-14.0028008402801</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
@@ -697,21 +731,24 @@
       <c r="G10">
         <v>-13.865575913631901</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11">
         <v>-4.2380266121412404</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11">
         <v>2.2549304597552198E-5</v>
       </c>
       <c r="F11">
@@ -720,21 +757,24 @@
       <c r="G11">
         <v>-4.1564141002516601</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H11" s="1">
+        <v>2.7059165517062698E-5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="B12" t="s">
-        <v>22</v>
-      </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D12">
         <v>3.3231925948636198</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12">
         <v>8.8993448518670504E-4</v>
       </c>
       <c r="F12">
@@ -743,16 +783,19 @@
       <c r="G12">
         <v>3.3925788827777099</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H12" s="1">
+        <v>1.0011762958350399E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -766,21 +809,24 @@
       <c r="G13">
         <v>2.7041047939836398E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14">
         <v>-14.0028008402801</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
@@ -789,21 +835,24 @@
       <c r="G14">
         <v>-13.865575913631901</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15">
         <v>-10.642128638612901</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
@@ -812,21 +861,24 @@
       <c r="G15">
         <v>-10.504903711964699</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16">
         <v>-14.0028008402801</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
@@ -835,21 +887,24 @@
       <c r="G16">
         <v>-13.865575913631901</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17">
         <v>-8.9617925377792602</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
@@ -858,21 +913,24 @@
       <c r="G17">
         <v>-8.82456761113108</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18">
         <v>-14.0028008402801</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
@@ -881,21 +939,24 @@
       <c r="G18">
         <v>-13.865575913631901</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19">
         <v>-14.0028008402801</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
@@ -903,6 +964,9 @@
       </c>
       <c r="G19">
         <v>-13.865575913631901</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
